--- a/Ting_hours.xlsx
+++ b/Ting_hours.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Start</t>
   </si>
@@ -34,10 +34,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -60,14 +76,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -397,15 +425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E1" sqref="E1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,8 +443,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>42358</v>
       </c>
@@ -426,8 +463,17 @@
       <c r="C2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2" s="1">
+        <v>42386</v>
+      </c>
+      <c r="F2" s="1">
+        <v>42392</v>
+      </c>
+      <c r="G2">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>42365</v>
       </c>
@@ -437,8 +483,17 @@
       <c r="C3">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3" s="1">
+        <v>42393</v>
+      </c>
+      <c r="F3" s="1">
+        <v>42399</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>42372</v>
       </c>
@@ -448,8 +503,17 @@
       <c r="C4">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4" s="1">
+        <v>42400</v>
+      </c>
+      <c r="F4" s="1">
+        <v>42375</v>
+      </c>
+      <c r="G4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>42379</v>
       </c>
@@ -460,7 +524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>42386</v>
       </c>
@@ -471,8 +535,31 @@
         <v>10.5</v>
       </c>
     </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>42393</v>
+      </c>
+      <c r="B7" s="1">
+        <v>42399</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>42400</v>
+      </c>
+      <c r="B8" s="1">
+        <v>42375</v>
+      </c>
+      <c r="C8">
+        <v>2.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
